--- a/数据整理/stocks/A股/创业板/300633-开立医疗.xlsx
+++ b/数据整理/stocks/A股/创业板/300633-开立医疗.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000523</t>
+          <t>000727</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国投瑞银医疗保健行业灵活配置混合</t>
+          <t>融通健康产业灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>83.84</t>
+          <t>21.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7897</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000727</t>
+          <t>000523</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>融通健康产业灵活配置混合A</t>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.74</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8.15</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009274</t>
+          <t>011082</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>融通健康产业灵活配置混合C</t>
+          <t>国投瑞银医疗保健混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.74</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8.15</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011082</t>
+          <t>009274</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国投瑞银医疗保健混合C</t>
+          <t>融通健康产业灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>83.84</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -614,15 +664,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>84.63</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>4.66</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -642,15 +702,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>84.63</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>4.66</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>3</v>
       </c>
     </row>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -706,25 +786,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000974</t>
+          <t>630010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>安信消费医药主题股票</t>
+          <t>华商价值精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.80</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2237</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -734,26 +824,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>630006</t>
+          <t>000974</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华商产业升级混合</t>
+          <t>安信消费医药主题股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>79.25</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2040</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -762,26 +862,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>630010</t>
+          <t>630006</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华商价值精选混合</t>
+          <t>华商产业升级混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>79.88</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300633-开立医疗.xlsx
+++ b/数据整理/stocks/A股/创业板/300633-开立医疗.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -897,4 +898,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4715</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010534</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发均衡增长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>71.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>39.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2366</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009381</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2244</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010535</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发均衡增长混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>39.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009382</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300633-开立医疗.xlsx
+++ b/数据整理/stocks/A股/创业板/300633-开立医疗.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1182,4 +1183,1198 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5247</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000878</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3709</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000780</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3182</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河康乐股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1133</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000879</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010925</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011181</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>56.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005599</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001007</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国联安鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004076</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国联安锐意成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006882</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰保兴健康消费混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006883</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰保兴健康消费混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005600</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011149</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010926</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011150</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>160415</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安量化多因子混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011182</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>56.07</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003684</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>71.19</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003685</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>71.19</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300633-开立医疗.xlsx
+++ b/数据整理/stocks/A股/创业板/300633-开立医疗.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2377,4 +2378,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.09</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300633-开立医疗.xlsx
+++ b/数据整理/stocks/A股/创业板/300633-开立医疗.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2386,7 +2387,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2397,17 +2398,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2417,14 +2438,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.01</v>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9735</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2433,14 +2476,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.03</v>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5822</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2449,14 +2514,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.48</v>
+          <t>002919</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2612</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2465,13 +2552,415 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>002300</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长盛医疗行业量化配置股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1271</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河康乐股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1212</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003684</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>180028</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华永祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005281</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中科沃土转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>73.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001864</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中海魅力长三角灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>68.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003685</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300633-开立医疗.xlsx
+++ b/数据整理/stocks/A股/创业板/300633-开立医疗.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2859,7 +2860,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2870,17 +2871,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2890,14 +2911,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.31</v>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4826</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2906,14 +2949,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>30</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.01</v>
+          <t>002919</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3420</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2922,14 +2987,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.03</v>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3062</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2938,14 +3025,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.48</v>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2953</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2954,13 +3063,585 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>000878</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2131</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1554</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河康乐股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000879</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001294</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新华战略新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005120</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上投摩根量化多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005281</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中科沃土转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>21.75</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300633-开立医疗.xlsx
+++ b/数据整理/stocks/A股/创业板/300633-开立医疗.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3524,7 +3525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3535,17 +3536,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3555,14 +3576,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.18</v>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7375</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -3571,14 +3614,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.31</v>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5665</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -3587,14 +3652,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>30</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.01</v>
+          <t>160106</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方高增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5389</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3603,14 +3690,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.03</v>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4206</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -3619,14 +3728,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2941</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.48</v>
       </c>
     </row>
     <row r="7">
@@ -3635,13 +3766,1093 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>002919</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2759</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2706</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2404</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2104</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160105</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方积极配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1974</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011948</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1514</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河康乐股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013940</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东吴医疗服务股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000554</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方中国梦灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001294</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新华战略新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013941</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东吴医疗服务股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005281</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中科沃土转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>38.48</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013072</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013073</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300633-开立医疗.xlsx
+++ b/数据整理/stocks/A股/创业板/300633-开立医疗.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="D2" t="n">
-        <v>5.46</v>
+        <v>21.13</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>3.18</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>2.31</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>2.01</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.48</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.09</v>
       </c>
     </row>
@@ -600,6 +617,4614 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H121"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160106</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方高增长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6024</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5882</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009863</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国创新趋势股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0127</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004075</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9578</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9516</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7130</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000913</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>农银医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7098</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6972</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>399011</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中海医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6545</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6222</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160105</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方积极配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5642</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010592</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5626</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>100060</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国高新技术产业混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4543</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4488</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011335</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银河医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4402</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002669</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4290</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4098</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.41</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.43</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4096</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>73.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4082</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005136</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安幸福生活混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3806</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3638</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010585</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3335</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010593</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3265</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3037</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008293</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>农银汇理创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2811</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008359</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2804</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2623</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000878</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2612</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519171</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2143</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1849</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002264</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1808</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1750</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009913</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中信保诚成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>74.01</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1579</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>160143</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方创业板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1568</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1511</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014046</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1439</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>大成多策略混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012491</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华商核心引力混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1400</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013349</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>创金合信大健康混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1326</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000554</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南方中国梦灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1299</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>银河康乐股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1280</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011876</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>景顺长城医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1273</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002300</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长盛医疗行业量化配置股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012202</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中加消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>73.15</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1116</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000879</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1113</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>860038</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合B</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001898</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>易方达大健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1004</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>86.93</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008107</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华商医药医疗行业股票</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001294</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>新华战略新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>013348</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>创金合信大健康混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>014126</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002160</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>南方转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>016062</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>大成多策略混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>013483</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008923</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>建信医疗健康行业股票A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010586</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011369</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>013183</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>014647</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>融通先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>014885</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>长盛匠心研究混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>48.22</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>013771</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中加龙头精选混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005329</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇添富民安增益定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011877</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>景顺长城医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>015032</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中融医药消费混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>014648</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>融通先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>008924</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>建信医疗健康行业股票C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>013772</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中加龙头精选混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>012982</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华夏创新医药龙头混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>007481</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>014886</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>长盛匠心研究混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>48.22</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>016018</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>银河康乐股票C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>162212</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011370</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>012981</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华夏创新医药龙头混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010703</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>财通智选消费股票A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010704</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>财通智选消费股票C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010177</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>012203</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中加消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>73.15</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>012492</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华商核心引力混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010176</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>009855</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>70.32</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>014157</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>国泰君安创新医药混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>860039</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>009856</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>70.32</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>014125</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>860018</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>014933</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>005330</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>汇添富民安增益定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>016069</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>001563</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>华富健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>013072</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>011150</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>011149</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>014282</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>中信保诚成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>74.01</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>015033</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>中融医药消费混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>015666</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>银河医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>014758</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>013073</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>014990</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>华安幸福生活混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>015619</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>015066</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>015065</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>016051</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1793,7 +6418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2457,7 +7082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2929,7 +7554,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4123,7 +8748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4407,7 +9032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4577,7 +9202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300633-开立医疗.xlsx
+++ b/数据整理/stocks/A股/创业板/300633-开立医疗.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="D2" t="n">
-        <v>21.13</v>
+        <v>21.44</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="D3" t="n">
-        <v>5.46</v>
+        <v>21.13</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>3.18</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>2.31</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>2.01</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>0.48</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>6</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>2.09</v>
       </c>
     </row>
@@ -616,7 +633,5615 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7897</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000523</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011082</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004763</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中科沃土沃嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004764</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中科沃土沃嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H140"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0255</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3300</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>470006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>47.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1035</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9153</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160918</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成中小盘混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8766</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>050026</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>34.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8724</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8557</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004075</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>33.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8516</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8022</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002669</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7240</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6162</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011335</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5211</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519158</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>新华趋势领航混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5209</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>399011</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中海医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5148</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4172</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成多策略混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4117</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4013</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3994</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011826</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3745</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010585</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3406</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000996</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银新动力股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3292</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3223</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>016062</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成多策略混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3089</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519171</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3088</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011159</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成中小盘混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2525</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012491</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华商核心引力混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2375</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2276</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001898</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达大健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2073</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002967</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浙商大数据智选消费灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1708</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012706</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中银核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1588</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1567</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银河康乐股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1501</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004982</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>新华安享多裕定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>45.81</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1405</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000939</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银研究精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1361</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009877</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中银内核驱动股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1360</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013349</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>创金合信大健康混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012202</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中加消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1212</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008107</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华商医药医疗行业股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1200</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>160143</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南方创业板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1193</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011827</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1151</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001294</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>新华战略新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005347</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>诺德量化优选6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008924</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>建信医疗健康行业股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>016069</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0987</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011876</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>景顺长城医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>860038</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合B</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>013348</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>创金合信大健康混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014046</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011369</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>014020</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>诺德量化先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>72.32</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012086</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>博时健康生活混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000017</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>财通可持续发展主题混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>77.34</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011877</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>景顺长城医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010586</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>013183</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>008923</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>建信医疗健康行业股票A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011370</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>014885</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长盛匠心研究混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>62.25</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011288</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>012203</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中加消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>014121</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>大成品质医疗股票A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>012982</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华夏创新医药龙头混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005029</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中银产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>012492</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华商核心引力混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011543</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中加科瑞混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>015162</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>景顺长城鑫景产业精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005914</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>景顺长城智能生活混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>014021</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>诺德量化先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>72.32</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>014886</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>长盛匠心研究混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>62.25</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010799</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>长城优选稳进六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>32.14</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>006241</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>162212</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>012981</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华夏创新医药龙头混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>015032</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中融医药消费混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010177</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001801</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>汇添富达欣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>007481</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>013771</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中加龙头精选混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>013772</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中加龙头精选混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>010176</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>014157</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>国泰君安创新医药混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>012087</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>博时健康生活混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>002165</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>汇添富达欣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>005953</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>人保转型新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001563</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华富健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>011895</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>000649</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>长城久鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>860039</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>014933</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>013072</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>011289</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>016018</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>银河康乐股票C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>013073</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>860018</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>012707</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>中银核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>014122</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>大成品质医疗股票C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>006240</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>011150</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>562520</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>华夏中证智选1000成长创新策略ETF</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>96.24</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>011149</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>015617</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>永赢卓越臻选股票A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>006226</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>016051</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>015163</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>景顺长城鑫景产业精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>015033</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>中融医药消费混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>015666</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>银河医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>012264</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>中银研究精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>012600</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>中银内核驱动股票C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>005954</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>人保转型新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>015618</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>永赢卓越臻选股票C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>010800</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>长城优选稳进六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>32.14</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>014813</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>浙商大数据智选消费灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>014758</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>006225</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>015066</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>015619</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>005030</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>中银产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>014085</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>77.34</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>960015</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合O</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>017461</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>长城久鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>014453</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>中银新动力股票C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>011544</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>中加科瑞混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5224,7 +10849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6418,7 +12043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7082,7 +12707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7554,7 +13179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8748,7 +14373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9032,7 +14657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9200,288 +14825,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000727</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>融通健康产业灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>21.96</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.74</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.15</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.7897</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000523</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国投瑞银医疗保健行业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>83.84</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1257</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011082</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国投瑞银医疗保健混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>83.84</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1257</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009274</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>融通健康产业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.74</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.15</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0432</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004763</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中科沃土沃嘉灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>84.63</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004764</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中科沃土沃嘉灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>84.63</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>